--- a/manage/media/media.xlsx
+++ b/manage/media/media.xlsx
@@ -845,132 +845,11 @@
       </c>
       <c r="H5" s="12" t="n"/>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>QNN/LKN</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Trần Hữu Vinh</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0969981849</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Trần Hữu Vinh</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>+84915905138</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2023-12-29</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>not think</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>QNN/LKN</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Trần Hữu Vinh</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0969981849</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Trần Hữu Vinh</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>+84915905138</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2023-12-29</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>not think</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>QNN/TYA</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Trần Hữu Vinh</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0969981849</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Trần Hữu Vinh</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0969981849</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2023-12-28</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>not think</t>
-        </is>
-      </c>
-    </row>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B4:B5"/>

--- a/manage/media/media.xlsx
+++ b/manage/media/media.xlsx
@@ -327,7 +327,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
@@ -372,7 +372,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -743,30 +742,30 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:H7"/>
+      <selection activeCell="A6" sqref="A6:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="40.109375" customWidth="1" style="20" min="2" max="2"/>
-    <col width="49.44140625" customWidth="1" style="20" min="3" max="3"/>
-    <col width="24.77734375" customWidth="1" style="20" min="4" max="4"/>
-    <col width="23.21875" customWidth="1" style="20" min="5" max="5"/>
-    <col width="26.44140625" customWidth="1" style="20" min="6" max="6"/>
-    <col width="25.88671875" customWidth="1" style="20" min="7" max="8"/>
+    <col width="40.109375" customWidth="1" style="14" min="2" max="2"/>
+    <col width="49.44140625" customWidth="1" style="14" min="3" max="3"/>
+    <col width="24.77734375" customWidth="1" style="14" min="4" max="4"/>
+    <col width="23.21875" customWidth="1" style="14" min="5" max="5"/>
+    <col width="26.44140625" customWidth="1" style="14" min="6" max="6"/>
+    <col width="25.88671875" customWidth="1" style="14" min="7" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" customHeight="1" s="20">
+    <row r="1" ht="15.6" customHeight="1" s="14">
       <c r="A1" s="17" t="inlineStr">
         <is>
           <t>Đài Viễn Thông Quy Nhơn</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15.6" customHeight="1" s="20">
+    <row r="2" ht="15.6" customHeight="1" s="14">
       <c r="A2" s="17" t="n"/>
       <c r="B2" s="13" t="inlineStr">
         <is>
@@ -774,7 +773,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="16.8" customHeight="1" s="20" thickBot="1">
+    <row r="3" ht="16.8" customHeight="1" s="14" thickBot="1">
       <c r="A3" s="2" t="n"/>
       <c r="B3" s="18" t="inlineStr">
         <is>
@@ -789,7 +788,7 @@
       <c r="H3" s="19" t="n"/>
       <c r="I3" s="19" t="n"/>
     </row>
-    <row r="4" ht="15.6" customHeight="1" s="20">
+    <row r="4" ht="15.6" customHeight="1" s="14">
       <c r="A4" s="11" t="inlineStr">
         <is>
           <t>Cung đoạn</t>
@@ -819,7 +818,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="16.2" customHeight="1" s="20" thickBot="1">
+    <row r="5" ht="16.2" customHeight="1" s="14" thickBot="1">
       <c r="A5" s="12" t="n"/>
       <c r="B5" s="8" t="n"/>
       <c r="C5" s="10" t="n"/>
@@ -845,11 +844,90 @@
       </c>
       <c r="H5" s="12" t="n"/>
     </row>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>QNN/NTG</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>vinh</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>01122344</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>okkok-k34m</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>T3H4V</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9993499</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>88438</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>o3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>QNN/NTG</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>vinh2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>011222</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>okkok-k32m</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>T3H4V</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9993499</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>88438</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>o3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B4:B5"/>

--- a/manage/media/media.xlsx
+++ b/manage/media/media.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="media" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="media" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -742,7 +742,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:H10"/>
@@ -928,6 +928,48 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>QNN/NTG</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>vinh2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>011222</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>okkok-k32m</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>T3H4V</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9993499</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>88438</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>o3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B4:B5"/>
